--- a/readme.xlsx
+++ b/readme.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA71868A-1A43-47AF-AF83-D7B76200947B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FF37DE-133E-4811-B96C-CF78D2BC0732}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7200" xr2:uid="{E4450EF4-C089-4200-8C32-3721A0065C3F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11445" xr2:uid="{E4450EF4-C089-4200-8C32-3721A0065C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -2274,7 +2274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D38A68B-9479-4008-8159-9542CB24F456}">
   <dimension ref="A1:A116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -2343,7 +2343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317D7403-FF87-4A51-AC87-77B7823E196B}">
   <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -2402,7 +2402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728C3E59-169B-4492-9B24-1C584D91782D}">
   <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>

--- a/readme.xlsx
+++ b/readme.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FF37DE-133E-4811-B96C-CF78D2BC0732}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiruko/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11445" xr2:uid="{E4450EF4-C089-4200-8C32-3721A0065C3F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
     <sheet name="How to use" sheetId="2" r:id="rId2"/>
     <sheet name="Techniques" sheetId="3" r:id="rId3"/>
+    <sheet name="Uninstall" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Setup</t>
     <phoneticPr fontId="1"/>
@@ -65,18 +76,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(The shortcut is created)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4.Open the Run window(Win+R) and enter the shortcut name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5.The file opend.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>→Techniques</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -93,10 +96,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The shortcut is also created in the "SendTo"  folder</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.Right click on any file you want to make shortcut, and select "neutrino" (Shift+F10 -&gt; N -&gt; N)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -121,10 +120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>This bat file opens some shortcuts at the same time. Set the shortcut for the bat file itself.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Copy the file/folder/drive path or URL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -138,13 +133,69 @@
   </si>
   <si>
     <t>4.Launch multi shortcuts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.Delete setup files</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Uninstall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not your favorite? This is the uninstall process…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.Delete the folder you prepared</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.Delete the folder path in the "Path" of the environment variables</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.Delete the shortcut in "SendTo" folder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>These two files on the Desktop are now unnecessary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The shortcut is also created in the "SendTo"  folder (Enter "shell:sendto" in address bar to see this folder)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Enter "shell:sendto" in address bar to see this folder)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>When you mistyped the shortcut name, you can delete this shortcut and try again (not necessary)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shortcut is created in the folder you prepared in "Setup"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.The file opend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This bat file opens some shortcuts at the same time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set the shortcut for the bat file itself</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,7 +316,7 @@
         <xdr:cNvPr id="23" name="図 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4244B8EB-9E7C-4EF9-91E4-9E99D07DE569}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4244B8EB-9E7C-4EF9-91E4-9E99D07DE569}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -326,7 +377,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BCCD060-30C7-48A6-A96E-940695CFBEFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BCCD060-30C7-48A6-A96E-940695CFBEFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -370,7 +421,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F991B51C-0F05-4889-B57A-70590C6A66C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F991B51C-0F05-4889-B57A-70590C6A66C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -414,7 +465,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39A8E64-AA82-40DA-8CE9-FB0240A974AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39A8E64-AA82-40DA-8CE9-FB0240A974AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -449,7 +500,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>685286</xdr:colOff>
+      <xdr:colOff>672586</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>56845</xdr:rowOff>
     </xdr:to>
@@ -458,7 +509,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FB8EAC-9FAA-4453-9D70-394FAB457303}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5FB8EAC-9FAA-4453-9D70-394FAB457303}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -502,7 +553,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77A245B-FF2D-4E07-9986-189CBA103C88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C77A245B-FF2D-4E07-9986-189CBA103C88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -546,7 +597,7 @@
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39041232-E314-424D-AA52-2C7F263C6AA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39041232-E314-424D-AA52-2C7F263C6AA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -607,7 +658,7 @@
         <xdr:cNvPr id="17" name="正方形/長方形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF04EC3-EC91-4757-B6DB-E9205EAF2931}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDF04EC3-EC91-4757-B6DB-E9205EAF2931}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -673,7 +724,7 @@
         <xdr:cNvPr id="19" name="図 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EF824C-EF60-4D0B-9832-46C8A1F0D89F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06EF824C-EF60-4D0B-9832-46C8A1F0D89F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +785,7 @@
         <xdr:cNvPr id="20" name="正方形/長方形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA48910-D8FD-43A4-8FD2-5391435222CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5AA48910-D8FD-43A4-8FD2-5391435222CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -800,7 +851,7 @@
         <xdr:cNvPr id="21" name="正方形/長方形 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4276841-8837-4185-9CBA-17BC7F68E400}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4276841-8837-4185-9CBA-17BC7F68E400}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +917,7 @@
         <xdr:cNvPr id="29" name="図 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B5B1A4-3177-4436-8D96-FDBE1E9C201D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88B5B1A4-3177-4436-8D96-FDBE1E9C201D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -927,7 +978,7 @@
         <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B20E180-6558-4A63-9FE2-A0AF3DCC4D2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B20E180-6558-4A63-9FE2-A0AF3DCC4D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,7 +1034,7 @@
         <xdr:cNvPr id="28" name="正方形/長方形 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C7AA33E-E510-4447-B72C-0F2F7BA0EFB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C7AA33E-E510-4447-B72C-0F2F7BA0EFB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1049,7 +1100,7 @@
         <xdr:cNvPr id="34" name="図 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E435D7FA-58EB-4E9D-B0FC-05893DC5BA61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E435D7FA-58EB-4E9D-B0FC-05893DC5BA61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1093,7 +1144,7 @@
         <xdr:cNvPr id="35" name="正方形/長方形 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4302E4C0-C0B0-41CD-AAE6-3DDD46D46266}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4302E4C0-C0B0-41CD-AAE6-3DDD46D46266}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1141,6 +1192,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>456971</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>28482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F991B51C-0F05-4889-B57A-70590C6A66C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26670000"/>
+          <a:ext cx="1814991" cy="707492"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1164,7 +1259,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F65E24-DF8E-4AB5-B87E-1F5BF3BFDBA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8F65E24-DF8E-4AB5-B87E-1F5BF3BFDBA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1215,8 +1310,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>675848</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2748</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>152232</xdr:rowOff>
     </xdr:to>
@@ -1225,7 +1320,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37043C2-A07C-4B66-8249-42EABFA27CD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C37043C2-A07C-4B66-8249-42EABFA27CD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,13 +1350,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>675762</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2662</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>47321</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1269,7 +1364,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B77E70B-2C20-4B73-9971-06F70EF2BCA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B77E70B-2C20-4B73-9971-06F70EF2BCA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,13 +1394,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1313,7 +1408,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631CDF21-5345-4616-A9DC-7AA907125CDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{631CDF21-5345-4616-A9DC-7AA907125CDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,13 +1460,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>371000</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>56905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1379,7 +1474,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57594FFA-3A34-4144-AF91-928EA46B1978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57594FFA-3A34-4144-AF91-928EA46B1978}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1409,13 +1504,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>580609</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76042</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1423,7 +1518,7 @@
         <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4055B11-66E0-4E8C-B102-F580F34000A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4055B11-66E0-4E8C-B102-F580F34000A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1567,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9B38A4-4034-484C-9163-4B6136D62411}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC9B38A4-4034-484C-9163-4B6136D62411}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +1611,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5327DACB-4810-45A4-85A9-E355503B9B5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5327DACB-4810-45A4-85A9-E355503B9B5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,8 +1662,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>675848</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2748</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>152232</xdr:rowOff>
     </xdr:to>
@@ -1577,7 +1672,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1562EC8-EBF7-4ECC-B4D4-4FF20AF824AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1562EC8-EBF7-4ECC-B4D4-4FF20AF824AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,7 +1716,7 @@
         <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033BA0AB-5288-46DE-93F2-4D2AF6C1127B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{033BA0AB-5288-46DE-93F2-4D2AF6C1127B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,8 +1750,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>675848</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2748</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>152232</xdr:rowOff>
     </xdr:to>
@@ -1665,7 +1760,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9392C472-E355-46CA-8BC8-7A7034DB3ECA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9392C472-E355-46CA-8BC8-7A7034DB3ECA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1804,7 @@
         <xdr:cNvPr id="11" name="図 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3A574A-BF32-4924-8B69-DABD8FBBC335}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F3A574A-BF32-4924-8B69-DABD8FBBC335}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,8 +1838,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>675848</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2748</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>152232</xdr:rowOff>
     </xdr:to>
@@ -1753,7 +1848,7 @@
         <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CD512B4-15C3-44FA-A486-BC2E4535E7E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CD512B4-15C3-44FA-A486-BC2E4535E7E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1892,7 @@
         <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06CDFEC-0059-412B-90E5-2B34ECCD2186}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C06CDFEC-0059-412B-90E5-2B34ECCD2186}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,7 +1936,7 @@
         <xdr:cNvPr id="19" name="図 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65E29A8-8956-4C0D-A879-E913154ACA88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E65E29A8-8956-4C0D-A879-E913154ACA88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,13 +1983,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>103562</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>161161</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1902,7 +1997,7 @@
         <xdr:cNvPr id="20" name="図 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65488A25-5850-434C-A4C2-519D42DDB91A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65488A25-5850-434C-A4C2-519D42DDB91A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,13 +2027,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>218670</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>209419</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1946,7 +2041,7 @@
         <xdr:cNvPr id="22" name="図 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE16DD0F-C4BE-4BE2-832A-C1852AB24132}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE16DD0F-C4BE-4BE2-832A-C1852AB24132}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,6 +2065,292 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>774162</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>214461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BCCD060-30C7-48A6-A96E-940695CFBEFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1333500"/>
+          <a:ext cx="774162" cy="671661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149319</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>192858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06EF824C-EF60-4D0B-9832-46C8A1F0D89F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2476500"/>
+          <a:ext cx="5038819" cy="4536258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>37219</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>103424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4276841-8837-4185-9CBA-17BC7F68E400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4064000" y="3937000"/>
+          <a:ext cx="862719" cy="243124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>608560</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>84124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E435D7FA-58EB-4E9D-B0FC-05893DC5BA61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7734300"/>
+          <a:ext cx="5498060" cy="2141524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>942535</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>159662</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4302E4C0-C0B0-41CD-AAE6-3DDD46D46266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139700" y="9296400"/>
+          <a:ext cx="802835" cy="197762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2271,67 +2652,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D38A68B-9479-4008-8159-9542CB24F456}">
-  <dimension ref="A1:A116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="101" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A116" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A116" location="'How to use'!A1" display="→How to use" xr:uid="{9AD229D9-C3C9-4141-994E-3086886AB07A}"/>
+    <hyperlink ref="A122" location="'How to use'!A1" display="→How to use"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2340,57 +2731,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317D7403-FF87-4A51-AC87-77B7823E196B}">
-  <dimension ref="A1:A59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A58" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A59" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A59" location="Techniques!A1" display="→Techniques" xr:uid="{25633B10-855B-403C-AE52-ADED115C62C7}"/>
+    <hyperlink ref="A60" location="Techniques!A1" display="→Techniques"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2399,61 +2795,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728C3E59-169B-4492-9B24-1C584D91782D}">
-  <dimension ref="A1:A66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A67"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2462,4 +2863,49 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>